--- a/regionseng/12/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/12/hotels and restaurants/hotels and restaurants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -529,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P13"/>
+      <selection activeCell="R3" sqref="R3:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -541,7 +541,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -556,7 +556,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -570,7 +570,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="1"/>
       <c r="B3" s="18">
         <v>2006</v>
@@ -617,8 +617,14 @@
       <c r="P3" s="19">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75">
+      <c r="Q3" s="19">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75">
       <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
@@ -667,8 +673,14 @@
       <c r="P4" s="7">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75">
+      <c r="Q4" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="R4" s="7">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75">
       <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
@@ -717,8 +729,14 @@
       <c r="P5" s="8">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75">
+      <c r="Q5" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="R5" s="8">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -767,8 +785,14 @@
       <c r="P6" s="9">
         <v>329</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75">
+      <c r="Q6" s="9">
+        <v>339</v>
+      </c>
+      <c r="R6" s="9">
+        <v>342.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75">
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
@@ -817,8 +841,14 @@
       <c r="P7" s="9">
         <v>326</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75">
+      <c r="Q7" s="9">
+        <v>260</v>
+      </c>
+      <c r="R7" s="9">
+        <v>318.89999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
@@ -867,8 +897,14 @@
       <c r="P8" s="8">
         <v>238</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75">
+      <c r="Q8" s="8">
+        <v>455.3</v>
+      </c>
+      <c r="R8" s="8">
+        <v>463.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75">
       <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
@@ -917,8 +953,14 @@
       <c r="P9" s="8">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75">
+      <c r="Q9" s="8">
+        <v>4</v>
+      </c>
+      <c r="R9" s="8">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75">
       <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
@@ -967,8 +1009,14 @@
       <c r="P10" s="8">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75">
+      <c r="Q10" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="R10" s="8">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75">
       <c r="A11" s="14" t="s">
         <v>12</v>
       </c>
@@ -1017,8 +1065,14 @@
       <c r="P11" s="8">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75">
+      <c r="Q11" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="R11" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75">
       <c r="A12" s="14" t="s">
         <v>13</v>
       </c>
@@ -1067,8 +1121,14 @@
       <c r="P12" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75">
+      <c r="Q12" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="R12" s="10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -1117,8 +1177,14 @@
       <c r="P13" s="7">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75">
+      <c r="Q13" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="R13" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75">
       <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
@@ -1167,8 +1233,14 @@
       <c r="P14" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="10">
+        <v>0</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="12"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1183,7 +1255,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:16" s="2" customFormat="1">
+    <row r="16" spans="1:18" s="2" customFormat="1">
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>

--- a/regionseng/12/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/12/hotels and restaurants/hotels and restaurants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -529,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -541,7 +541,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -556,7 +556,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -570,7 +570,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="1"/>
       <c r="B3" s="18">
         <v>2006</v>
@@ -623,8 +623,11 @@
       <c r="R3" s="19">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75">
+      <c r="S3" s="19">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75">
       <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
@@ -679,8 +682,11 @@
       <c r="R4" s="7">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75">
+      <c r="S4" s="7">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75">
       <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
@@ -735,8 +741,11 @@
       <c r="R5" s="8">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75">
+      <c r="S5" s="8">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -791,8 +800,11 @@
       <c r="R6" s="9">
         <v>342.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75">
+      <c r="S6" s="9">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75">
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
@@ -847,8 +859,11 @@
       <c r="R7" s="9">
         <v>318.89999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75">
+      <c r="S7" s="9">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
@@ -903,8 +918,11 @@
       <c r="R8" s="8">
         <v>463.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75">
+      <c r="S8" s="8">
+        <v>797.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75">
       <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
@@ -959,8 +977,11 @@
       <c r="R9" s="8">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75">
+      <c r="S9" s="8">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75">
       <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
@@ -1015,8 +1036,11 @@
       <c r="R10" s="8">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75">
+      <c r="S10" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75">
       <c r="A11" s="14" t="s">
         <v>12</v>
       </c>
@@ -1071,8 +1095,11 @@
       <c r="R11" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75">
+      <c r="S11" s="8">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75">
       <c r="A12" s="14" t="s">
         <v>13</v>
       </c>
@@ -1127,8 +1154,11 @@
       <c r="R12" s="10">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75">
+      <c r="S12" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -1183,8 +1213,11 @@
       <c r="R13" s="7">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75">
+      <c r="S13" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75">
       <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
@@ -1239,8 +1272,11 @@
       <c r="R14" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="12"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1255,7 +1291,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:18" s="2" customFormat="1">
+    <row r="16" spans="1:19" s="2" customFormat="1">
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
